--- a/data/folketinget.xlsx
+++ b/data/folketinget.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kasper\Desktop\twitter_analysis\apps\twitter_performance_dkpol\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A392775E-C6B1-4B45-8C04-EA71443DE11F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F26087B5-AFC5-40FF-B5D5-DD702E01151C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,9 +435,6 @@
     <t>EllemannKaren</t>
   </si>
   <si>
-    <t>StemLAURITZEN</t>
-  </si>
-  <si>
     <t>KD_Mikkelsen</t>
   </si>
   <si>
@@ -538,6 +535,9 @@
   </si>
   <si>
     <t>EL</t>
+  </si>
+  <si>
+    <t>LauritzenK</t>
   </si>
 </sst>
 </file>
@@ -864,8 +864,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A75" sqref="A75:XFD75"/>
+    <sheetView tabSelected="1" topLeftCell="A136" workbookViewId="0">
+      <selection activeCell="A138" sqref="A138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -881,7 +881,7 @@
         <v>37</v>
       </c>
       <c r="C1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -889,10 +889,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -900,10 +900,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
@@ -911,10 +911,10 @@
         <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -922,10 +922,10 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -933,10 +933,10 @@
         <v>31</v>
       </c>
       <c r="B6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -944,10 +944,10 @@
         <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -955,10 +955,10 @@
         <v>39</v>
       </c>
       <c r="B8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -966,10 +966,10 @@
         <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -977,10 +977,10 @@
         <v>41</v>
       </c>
       <c r="B10" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C10" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -988,10 +988,10 @@
         <v>4</v>
       </c>
       <c r="B11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
@@ -999,10 +999,10 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C12" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
@@ -1010,10 +1010,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1021,10 +1021,10 @@
         <v>35</v>
       </c>
       <c r="B14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1032,10 +1032,10 @@
         <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1043,10 +1043,10 @@
         <v>43</v>
       </c>
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1054,10 +1054,10 @@
         <v>44</v>
       </c>
       <c r="B17" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C17" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1065,10 +1065,10 @@
         <v>45</v>
       </c>
       <c r="B18" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C18" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1076,10 +1076,10 @@
         <v>46</v>
       </c>
       <c r="B19" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C19" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1087,10 +1087,10 @@
         <v>47</v>
       </c>
       <c r="B20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1098,10 +1098,10 @@
         <v>48</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C21" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1109,10 +1109,10 @@
         <v>49</v>
       </c>
       <c r="B22" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1120,10 +1120,10 @@
         <v>50</v>
       </c>
       <c r="B23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1131,10 +1131,10 @@
         <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C24" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1142,10 +1142,10 @@
         <v>55</v>
       </c>
       <c r="B25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1153,10 +1153,10 @@
         <v>58</v>
       </c>
       <c r="B26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1164,10 +1164,10 @@
         <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1175,10 +1175,10 @@
         <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C28" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1186,10 +1186,10 @@
         <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1197,10 +1197,10 @@
         <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C30" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1208,10 +1208,10 @@
         <v>57</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C31" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -1219,10 +1219,10 @@
         <v>22</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C32" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1230,10 +1230,10 @@
         <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C33" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1241,10 +1241,10 @@
         <v>27</v>
       </c>
       <c r="B34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1252,10 +1252,10 @@
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C35" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1263,10 +1263,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1274,10 +1274,10 @@
         <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C37" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1285,10 +1285,10 @@
         <v>20</v>
       </c>
       <c r="B38" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C38" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1296,10 +1296,10 @@
         <v>6</v>
       </c>
       <c r="B39" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C39" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1307,10 +1307,10 @@
         <v>7</v>
       </c>
       <c r="B40" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C40" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1318,10 +1318,10 @@
         <v>10</v>
       </c>
       <c r="B41" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C41" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1329,10 +1329,10 @@
         <v>29</v>
       </c>
       <c r="B42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1340,10 +1340,10 @@
         <v>61</v>
       </c>
       <c r="B43" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1351,10 +1351,10 @@
         <v>62</v>
       </c>
       <c r="B44" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C44" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1362,21 +1362,21 @@
         <v>21</v>
       </c>
       <c r="B45" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B46" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C46" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1384,10 +1384,10 @@
         <v>63</v>
       </c>
       <c r="B47" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1395,10 +1395,10 @@
         <v>64</v>
       </c>
       <c r="B48" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C48" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1406,10 +1406,10 @@
         <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C49" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="50" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1417,10 +1417,10 @@
         <v>66</v>
       </c>
       <c r="B50" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C50" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="51" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1428,10 +1428,10 @@
         <v>70</v>
       </c>
       <c r="B51" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1439,10 +1439,10 @@
         <v>71</v>
       </c>
       <c r="B52" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C52" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1450,10 +1450,10 @@
         <v>69</v>
       </c>
       <c r="B53" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C53" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1461,10 +1461,10 @@
         <v>68</v>
       </c>
       <c r="B54" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C54" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1472,10 +1472,10 @@
         <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.3">
@@ -1483,10 +1483,10 @@
         <v>23</v>
       </c>
       <c r="B56" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
@@ -1494,10 +1494,10 @@
         <v>24</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C57" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1505,10 +1505,10 @@
         <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1516,10 +1516,10 @@
         <v>73</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C59" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1527,10 +1527,10 @@
         <v>74</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1538,10 +1538,10 @@
         <v>75</v>
       </c>
       <c r="B61" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C61" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1549,10 +1549,10 @@
         <v>76</v>
       </c>
       <c r="B62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C62" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1560,10 +1560,10 @@
         <v>77</v>
       </c>
       <c r="B63" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="64" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1571,10 +1571,10 @@
         <v>78</v>
       </c>
       <c r="B64" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C64" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1582,10 +1582,10 @@
         <v>79</v>
       </c>
       <c r="B65" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C65" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="66" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1593,10 +1593,10 @@
         <v>80</v>
       </c>
       <c r="B66" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1604,10 +1604,10 @@
         <v>81</v>
       </c>
       <c r="B67" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="68" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1615,10 +1615,10 @@
         <v>82</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1626,10 +1626,10 @@
         <v>83</v>
       </c>
       <c r="B69" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C69" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1637,10 +1637,10 @@
         <v>84</v>
       </c>
       <c r="B70" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C70" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="71" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1648,10 +1648,10 @@
         <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C71" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1659,10 +1659,10 @@
         <v>86</v>
       </c>
       <c r="B72" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C72" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1670,10 +1670,10 @@
         <v>87</v>
       </c>
       <c r="B73" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C73" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1681,10 +1681,10 @@
         <v>88</v>
       </c>
       <c r="B74" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1692,10 +1692,10 @@
         <v>89</v>
       </c>
       <c r="B75" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C75" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1703,10 +1703,10 @@
         <v>90</v>
       </c>
       <c r="B76" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1714,10 +1714,10 @@
         <v>91</v>
       </c>
       <c r="B77" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C77" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="78" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1725,10 +1725,10 @@
         <v>92</v>
       </c>
       <c r="B78" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C78" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1736,10 +1736,10 @@
         <v>93</v>
       </c>
       <c r="B79" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C79" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
@@ -1747,10 +1747,10 @@
         <v>1</v>
       </c>
       <c r="B80" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C80" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
@@ -1758,10 +1758,10 @@
         <v>12</v>
       </c>
       <c r="B81" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
@@ -1769,10 +1769,10 @@
         <v>14</v>
       </c>
       <c r="B82" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C82" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
@@ -1780,10 +1780,10 @@
         <v>25</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
@@ -1791,10 +1791,10 @@
         <v>26</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
@@ -1802,10 +1802,10 @@
         <v>33</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.3">
@@ -1813,10 +1813,10 @@
         <v>34</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
@@ -1824,10 +1824,10 @@
         <v>36</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="88" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1835,10 +1835,10 @@
         <v>94</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="89" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1846,10 +1846,10 @@
         <v>95</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1857,10 +1857,10 @@
         <v>96</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1868,10 +1868,10 @@
         <v>97</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1879,10 +1879,10 @@
         <v>98</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="93" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1890,10 +1890,10 @@
         <v>99</v>
       </c>
       <c r="B93" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C93" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="94" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1901,10 +1901,10 @@
         <v>100</v>
       </c>
       <c r="B94" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C94" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="95" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1912,10 +1912,10 @@
         <v>101</v>
       </c>
       <c r="B95" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C95" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1923,10 +1923,10 @@
         <v>102</v>
       </c>
       <c r="B96" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C96" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1934,10 +1934,10 @@
         <v>103</v>
       </c>
       <c r="B97" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C97" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="98" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1945,10 +1945,10 @@
         <v>104</v>
       </c>
       <c r="B98" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C98" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1956,10 +1956,10 @@
         <v>105</v>
       </c>
       <c r="B99" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C99" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1967,10 +1967,10 @@
         <v>106</v>
       </c>
       <c r="B100" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C100" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1978,10 +1978,10 @@
         <v>107</v>
       </c>
       <c r="B101" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C101" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="102" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -1989,10 +1989,10 @@
         <v>108</v>
       </c>
       <c r="B102" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C102" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2000,10 +2000,10 @@
         <v>11</v>
       </c>
       <c r="B103" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C103" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
@@ -2011,10 +2011,10 @@
         <v>32</v>
       </c>
       <c r="B104" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C104" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="105" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2022,10 +2022,10 @@
         <v>109</v>
       </c>
       <c r="B105" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C105" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="106" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2033,10 +2033,10 @@
         <v>110</v>
       </c>
       <c r="B106" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C106" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2044,10 +2044,10 @@
         <v>111</v>
       </c>
       <c r="B107" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C107" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="108" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2055,10 +2055,10 @@
         <v>112</v>
       </c>
       <c r="B108" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C108" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="109" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2066,10 +2066,10 @@
         <v>113</v>
       </c>
       <c r="B109" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C109" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="110" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2077,10 +2077,10 @@
         <v>114</v>
       </c>
       <c r="B110" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C110" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2088,10 +2088,10 @@
         <v>115</v>
       </c>
       <c r="B111" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C111" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="112" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2099,10 +2099,10 @@
         <v>116</v>
       </c>
       <c r="B112" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C112" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2110,10 +2110,10 @@
         <v>117</v>
       </c>
       <c r="B113" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C113" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2121,10 +2121,10 @@
         <v>118</v>
       </c>
       <c r="B114" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C114" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="115" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2132,10 +2132,10 @@
         <v>119</v>
       </c>
       <c r="B115" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C115" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="116" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2143,10 +2143,10 @@
         <v>120</v>
       </c>
       <c r="B116" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C116" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2154,10 +2154,10 @@
         <v>2</v>
       </c>
       <c r="B117" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C117" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2165,10 +2165,10 @@
         <v>15</v>
       </c>
       <c r="B118" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2176,10 +2176,10 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2187,10 +2187,10 @@
         <v>18</v>
       </c>
       <c r="B120" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2198,10 +2198,10 @@
         <v>19</v>
       </c>
       <c r="B121" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2209,10 +2209,10 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="123" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2220,10 +2220,10 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="124" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2231,10 +2231,10 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="125" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2242,10 +2242,10 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="126" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2253,10 +2253,10 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C126" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2264,10 +2264,10 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2275,10 +2275,10 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="129" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2286,10 +2286,10 @@
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="130" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2297,10 +2297,10 @@
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="131" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2308,10 +2308,10 @@
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="132" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2319,10 +2319,10 @@
         <v>131</v>
       </c>
       <c r="B132" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C132" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="133" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2330,10 +2330,10 @@
         <v>132</v>
       </c>
       <c r="B133" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C133" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="134" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2341,10 +2341,10 @@
         <v>133</v>
       </c>
       <c r="B134" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C134" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="135" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2352,10 +2352,10 @@
         <v>134</v>
       </c>
       <c r="B135" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
@@ -2363,219 +2363,219 @@
         <v>135</v>
       </c>
       <c r="B136" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>136</v>
+        <v>170</v>
       </c>
       <c r="B137" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C137" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="138" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C138" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="139" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C139" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C140" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="142" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C142" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="144" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C144" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A145" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C145" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C146" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="147" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C147" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="148" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C148" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C149" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C150" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C151" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="152" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C152" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="153" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C153" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C154" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:3" ht="16.8" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C155" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/data/folketinget.xlsx
+++ b/data/folketinget.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="172">
   <si>
     <t xml:space="preserve">user</t>
   </si>
@@ -140,15 +140,6 @@
     <t xml:space="preserve">RosaLundEl</t>
   </si>
   <si>
-    <t xml:space="preserve">jonasholmdk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Q</t>
-  </si>
-  <si>
-    <t xml:space="preserve">neutral</t>
-  </si>
-  <si>
     <t xml:space="preserve">AlexVanopslagh</t>
   </si>
   <si>
@@ -188,340 +179,355 @@
     <t xml:space="preserve">SamiraNawa</t>
   </si>
   <si>
+    <t xml:space="preserve">kronborgsusan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">martinlidegaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KathrineOlldag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sofiecn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">a_steenberg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rvthorholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KatrineRobsoe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rasmushelveg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stinuslindgreen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">zeniastampe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LotteRod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IdaAuken</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinebramsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BjBrandenborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bressendorff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JeppeBruus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KaareDybvad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BennyEngelbrech</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CamFabricius</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MetteGjerskov</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AlexanderGrandt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HavOrla</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PHummelgaard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MFThomasJensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LahnLeif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jens_Joel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">janjohansen16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DanJoergensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SandKjaer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AndersKronborg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rasmushorn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MalteLarsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LarssonTanja</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Heunicke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RosenkrantzT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simonkollerup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MogensJensenS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AneHalsboe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RabjergMadsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mattiastesfaye</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Astridkrag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bjarne_Laustsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">annette_lind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Henrikm86712011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paulin_Anne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jesper_Pet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RasmusPrehn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lars_aslan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RavnTroels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KasperRoug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JulieSkovsby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RStoklund</t>
+  </si>
+  <si>
+    <t xml:space="preserve">birgitte_vind</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NWammen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LeaWermelin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PiaOlsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">khoenge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacobmark_sf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LisbethBNielsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TrineTorp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KirstenNormann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF_K_Lorentzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">signe_munk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Carl__Valentin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">charlottebroman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Halime9Oguz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnneValentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AstridCaroee</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rasmusnordqvist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JakobEllemann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Martin_Geertsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JanEJoergensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sophieloehde</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnneStergaa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AnniMatthiesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BHaarder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CKissmeyer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ChristofferMels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EllenTraneNorby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ErlingBonnesen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EvaKjerHansen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fatmaoektem</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HansAndersenV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HaChrSchmidt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bankHeidi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">jacobjensenMF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">JaneHeitmann</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EllemannKaren</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LauritzenK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KD_Mikkelsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kimvalentinDK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kplorentzen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">larsclilleholt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">LouiseElholm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">madsfuglede</t>
+  </si>
+  <si>
+    <t xml:space="preserve">marie_bjerre</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarkGrossmannV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MarleneAmbo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">michaelaastrup</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MortenDahlin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PeterJuelJensen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sten_Knuth</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ThDanielsen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Torstenschack</t>
+  </si>
+  <si>
+    <t xml:space="preserve">troelslundp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ulla_Tornaes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">larsloekke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ammitzbollbille</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uffeelbaek</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susanne_Zimmer_</t>
+  </si>
+  <si>
     <t xml:space="preserve">rohde_jens</t>
   </si>
   <si>
-    <t xml:space="preserve">kronborgsusan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">martinlidegaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KathrineOlldag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sofiecn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">a_steenberg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rvthorholm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KatrineRobsoe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rasmushelveg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stinuslindgreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">zeniastampe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LotteRod</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IdaAuken</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Trinebramsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BjBrandenborg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bressendorff</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JeppeBruus</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KaareDybvad</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BennyEngelbrech</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CamFabricius</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MetteGjerskov</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AlexanderGrandt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HavOrla</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PHummelgaard</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MFThomasJensen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LahnLeif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jens_Joel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">janjohansen16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">DanJoergensen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">SandKjaer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AndersKronborg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rasmushorn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MalteLarsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LarssonTanja</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Heunicke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RosenkrantzT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">simonkollerup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MogensJensenS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AneHalsboe</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RabjergMadsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mattiastesfaye</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Astridkrag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bjarne_Laustsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">annette_lind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FlemmingMM</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Henrikm86712011</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Paulin_Anne</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Jesper_Pet</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RasmusPrehn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">lars_aslan</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RavnTroels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KasperRoug</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JulieSkovsby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">RStoklund</t>
-  </si>
-  <si>
-    <t xml:space="preserve">birgitte_vind</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NWammen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LeaWermelin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PiaOlsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">khoenge</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacobmark_sf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LisbethBNielsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TrineTorp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KirstenNormann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF_K_Lorentzen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">signe_munk</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Carl__Valentin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">charlottebroman</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Halime9Oguz</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnneValentina</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AstridCaroee</t>
-  </si>
-  <si>
-    <t xml:space="preserve">rasmusnordqvist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JakobEllemann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">V</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Martin_Geertsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JanEJoergensen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sophieloehde</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnneStergaa</t>
-  </si>
-  <si>
-    <t xml:space="preserve">AnniMatthiesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BHaarder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CKissmeyer</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ChristofferMels</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EllenTraneNorby</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ErlingBonnesen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EvaKjerHansen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">fatmaoektem</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HansAndersenV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HaChrSchmidt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">bankHeidi</t>
-  </si>
-  <si>
-    <t xml:space="preserve">jacobjensenMF</t>
-  </si>
-  <si>
-    <t xml:space="preserve">JaneHeitmann</t>
-  </si>
-  <si>
-    <t xml:space="preserve">EllemannKaren</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LauritzenK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">KD_Mikkelsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kimvalentinDK</t>
-  </si>
-  <si>
-    <t xml:space="preserve">kplorentzen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">larsclilleholt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">LouiseElholm</t>
-  </si>
-  <si>
-    <t xml:space="preserve">madsfuglede</t>
-  </si>
-  <si>
-    <t xml:space="preserve">marie_bjerre</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarkGrossmannV</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MarleneAmbo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">michaelaastrup</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MortenDahlin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PeterJuelJensen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sten_Knuth</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ThDanielsen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Torstenschack</t>
-  </si>
-  <si>
-    <t xml:space="preserve">troelslundp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ulla_Tornaes</t>
-  </si>
-  <si>
-    <t xml:space="preserve">larsloekke</t>
-  </si>
-  <si>
-    <t xml:space="preserve">MF</t>
+    <t xml:space="preserve">KD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SikandaSIDDIQUE</t>
   </si>
 </sst>
 </file>
@@ -1235,15 +1241,15 @@
         <v>43</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B36" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
         <v>5</v>
@@ -1251,10 +1257,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B37" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" t="s">
         <v>5</v>
@@ -1262,10 +1268,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C38" t="s">
         <v>5</v>
@@ -1273,10 +1279,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C39" t="s">
         <v>5</v>
@@ -1284,10 +1290,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B40" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C40" t="s">
         <v>5</v>
@@ -1295,10 +1301,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B41" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C41" t="s">
         <v>5</v>
@@ -1306,21 +1312,21 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C43" t="s">
         <v>19</v>
@@ -1328,10 +1334,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C44" t="s">
         <v>19</v>
@@ -1339,10 +1345,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C45" t="s">
         <v>19</v>
@@ -1350,10 +1356,10 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C46" t="s">
         <v>19</v>
@@ -1361,10 +1367,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C47" t="s">
         <v>19</v>
@@ -1372,10 +1378,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C48" t="s">
         <v>19</v>
@@ -1383,10 +1389,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C49" t="s">
         <v>19</v>
@@ -1394,10 +1400,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C50" t="s">
         <v>19</v>
@@ -1405,10 +1411,10 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C51" t="s">
         <v>19</v>
@@ -1416,10 +1422,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C52" t="s">
         <v>19</v>
@@ -1427,10 +1433,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C53" t="s">
         <v>19</v>
@@ -1438,10 +1444,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C54" t="s">
         <v>19</v>
@@ -1449,10 +1455,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C55" t="s">
         <v>19</v>
@@ -1460,10 +1466,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C56" t="s">
         <v>19</v>
@@ -1471,10 +1477,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B57" t="s">
-        <v>55</v>
+        <v>18</v>
       </c>
       <c r="C57" t="s">
         <v>19</v>
@@ -1482,7 +1488,7 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B58" t="s">
         <v>18</v>
@@ -1493,7 +1499,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
         <v>18</v>
@@ -1504,7 +1510,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B60" t="s">
         <v>18</v>
@@ -1515,7 +1521,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B61" t="s">
         <v>18</v>
@@ -1526,7 +1532,7 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
         <v>18</v>
@@ -1537,7 +1543,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B63" t="s">
         <v>18</v>
@@ -1548,7 +1554,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B64" t="s">
         <v>18</v>
@@ -1559,7 +1565,7 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B65" t="s">
         <v>18</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B66" t="s">
         <v>18</v>
@@ -1581,7 +1587,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B67" t="s">
         <v>18</v>
@@ -1592,7 +1598,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B68" t="s">
         <v>18</v>
@@ -1603,7 +1609,7 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B69" t="s">
         <v>18</v>
@@ -1614,7 +1620,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B70" t="s">
         <v>18</v>
@@ -1625,7 +1631,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B71" t="s">
         <v>18</v>
@@ -1636,7 +1642,7 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B72" t="s">
         <v>18</v>
@@ -1647,7 +1653,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B73" t="s">
         <v>18</v>
@@ -1658,7 +1664,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B74" t="s">
         <v>18</v>
@@ -1669,7 +1675,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B75" t="s">
         <v>18</v>
@@ -1680,7 +1686,7 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B76" t="s">
         <v>18</v>
@@ -1691,7 +1697,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
         <v>18</v>
@@ -1702,7 +1708,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B78" t="s">
         <v>18</v>
@@ -1713,7 +1719,7 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B79" t="s">
         <v>18</v>
@@ -1724,7 +1730,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B80" t="s">
         <v>18</v>
@@ -1735,7 +1741,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B81" t="s">
         <v>18</v>
@@ -1746,7 +1752,7 @@
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B82" t="s">
         <v>18</v>
@@ -1757,7 +1763,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B83" t="s">
         <v>18</v>
@@ -1768,7 +1774,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B84" t="s">
         <v>18</v>
@@ -1779,7 +1785,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B85" t="s">
         <v>18</v>
@@ -1790,7 +1796,7 @@
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
         <v>18</v>
@@ -1801,7 +1807,7 @@
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B87" t="s">
         <v>18</v>
@@ -1812,7 +1818,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B88" t="s">
         <v>18</v>
@@ -1823,7 +1829,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B89" t="s">
         <v>18</v>
@@ -1834,7 +1840,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B90" t="s">
         <v>18</v>
@@ -1845,7 +1851,7 @@
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B91" t="s">
         <v>18</v>
@@ -1856,7 +1862,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B92" t="s">
         <v>18</v>
@@ -1867,7 +1873,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
         <v>18</v>
@@ -1878,7 +1884,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B94" t="s">
         <v>18</v>
@@ -1889,7 +1895,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
         <v>18</v>
@@ -1900,7 +1906,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B96" t="s">
         <v>18</v>
@@ -1911,7 +1917,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B97" t="s">
         <v>18</v>
@@ -1922,7 +1928,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B98" t="s">
         <v>18</v>
@@ -1933,7 +1939,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B99" t="s">
         <v>18</v>
@@ -1944,10 +1950,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C100" t="s">
         <v>19</v>
@@ -1955,10 +1961,10 @@
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C101" t="s">
         <v>19</v>
@@ -1966,10 +1972,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B102" t="s">
-        <v>18</v>
+        <v>111</v>
       </c>
       <c r="C102" t="s">
         <v>19</v>
@@ -1977,10 +1983,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B103" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C103" t="s">
         <v>19</v>
@@ -1988,10 +1994,10 @@
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B104" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C104" t="s">
         <v>19</v>
@@ -1999,10 +2005,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B105" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C105" t="s">
         <v>19</v>
@@ -2010,10 +2016,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B106" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C106" t="s">
         <v>19</v>
@@ -2021,10 +2027,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C107" t="s">
         <v>19</v>
@@ -2032,10 +2038,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B108" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C108" t="s">
         <v>19</v>
@@ -2043,10 +2049,10 @@
     </row>
     <row r="109">
       <c r="A109" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B109" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C109" t="s">
         <v>19</v>
@@ -2054,10 +2060,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B110" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C110" t="s">
         <v>19</v>
@@ -2065,10 +2071,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B111" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C111" t="s">
         <v>19</v>
@@ -2076,10 +2082,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B112" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C112" t="s">
         <v>19</v>
@@ -2087,10 +2093,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B113" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="C113" t="s">
         <v>19</v>
@@ -2098,43 +2104,43 @@
     </row>
     <row r="114">
       <c r="A114" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B114" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C114" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B115" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B116" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="C116" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B117" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C117" t="s">
         <v>5</v>
@@ -2142,10 +2148,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C118" t="s">
         <v>5</v>
@@ -2153,10 +2159,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B119" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C119" t="s">
         <v>5</v>
@@ -2164,10 +2170,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B120" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C120" t="s">
         <v>5</v>
@@ -2175,10 +2181,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B121" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C121" t="s">
         <v>5</v>
@@ -2186,10 +2192,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B122" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C122" t="s">
         <v>5</v>
@@ -2197,10 +2203,10 @@
     </row>
     <row r="123">
       <c r="A123" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B123" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C123" t="s">
         <v>5</v>
@@ -2208,10 +2214,10 @@
     </row>
     <row r="124">
       <c r="A124" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B124" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C124" t="s">
         <v>5</v>
@@ -2219,10 +2225,10 @@
     </row>
     <row r="125">
       <c r="A125" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B125" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C125" t="s">
         <v>5</v>
@@ -2230,10 +2236,10 @@
     </row>
     <row r="126">
       <c r="A126" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C126" t="s">
         <v>5</v>
@@ -2241,10 +2247,10 @@
     </row>
     <row r="127">
       <c r="A127" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B127" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C127" t="s">
         <v>5</v>
@@ -2252,10 +2258,10 @@
     </row>
     <row r="128">
       <c r="A128" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B128" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C128" t="s">
         <v>5</v>
@@ -2263,10 +2269,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B129" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C129" t="s">
         <v>5</v>
@@ -2274,10 +2280,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B130" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C130" t="s">
         <v>5</v>
@@ -2285,10 +2291,10 @@
     </row>
     <row r="131">
       <c r="A131" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B131" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C131" t="s">
         <v>5</v>
@@ -2296,10 +2302,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B132" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C132" t="s">
         <v>5</v>
@@ -2307,10 +2313,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B133" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C133" t="s">
         <v>5</v>
@@ -2318,10 +2324,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B134" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C134" t="s">
         <v>5</v>
@@ -2329,10 +2335,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B135" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C135" t="s">
         <v>5</v>
@@ -2340,10 +2346,10 @@
     </row>
     <row r="136">
       <c r="A136" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B136" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C136" t="s">
         <v>5</v>
@@ -2351,10 +2357,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B137" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C137" t="s">
         <v>5</v>
@@ -2362,10 +2368,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B138" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C138" t="s">
         <v>5</v>
@@ -2373,10 +2379,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B139" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C139" t="s">
         <v>5</v>
@@ -2384,10 +2390,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B140" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C140" t="s">
         <v>5</v>
@@ -2395,10 +2401,10 @@
     </row>
     <row r="141">
       <c r="A141" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B141" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C141" t="s">
         <v>5</v>
@@ -2406,10 +2412,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B142" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C142" t="s">
         <v>5</v>
@@ -2417,10 +2423,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B143" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C143" t="s">
         <v>5</v>
@@ -2428,10 +2434,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B144" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C144" t="s">
         <v>5</v>
@@ -2439,10 +2445,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B145" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C145" t="s">
         <v>5</v>
@@ -2450,10 +2456,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B146" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C146" t="s">
         <v>5</v>
@@ -2461,10 +2467,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B147" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C147" t="s">
         <v>5</v>
@@ -2472,10 +2478,10 @@
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B148" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C148" t="s">
         <v>5</v>
@@ -2483,10 +2489,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B149" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C149" t="s">
         <v>5</v>
@@ -2494,10 +2500,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B150" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="C150" t="s">
         <v>5</v>
@@ -2505,10 +2511,10 @@
     </row>
     <row r="151">
       <c r="A151" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B151" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C151" t="s">
         <v>5</v>
@@ -2516,10 +2522,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B152" t="s">
-        <v>131</v>
+        <v>164</v>
       </c>
       <c r="C152" t="s">
         <v>5</v>
@@ -2527,23 +2533,41 @@
     </row>
     <row r="153">
       <c r="A153" t="s">
+        <v>166</v>
+      </c>
+      <c r="B153" t="s">
         <v>167</v>
       </c>
-      <c r="B153" t="s">
-        <v>131</v>
-      </c>
-      <c r="C153" t="s">
-        <v>5</v>
-      </c>
+      <c r="C153"/>
     </row>
     <row r="154">
       <c r="A154" t="s">
         <v>168</v>
       </c>
       <c r="B154" t="s">
+        <v>167</v>
+      </c>
+      <c r="C154"/>
+    </row>
+    <row r="155">
+      <c r="A155" t="s">
         <v>169</v>
       </c>
-      <c r="C154" t="s">
+      <c r="B155" t="s">
+        <v>170</v>
+      </c>
+      <c r="C155" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="s">
+        <v>171</v>
+      </c>
+      <c r="B156" t="s">
+        <v>167</v>
+      </c>
+      <c r="C156" t="s">
         <v>5</v>
       </c>
     </row>

--- a/data/folketinget.xlsx
+++ b/data/folketinget.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="352">
   <si>
     <t xml:space="preserve">user</t>
   </si>
@@ -351,12 +351,6 @@
   </si>
   <si>
     <t xml:space="preserve">Rasmus Helveg Petersen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">stinuslindgreen</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Stinus Lindgren</t>
   </si>
   <si>
     <t xml:space="preserve">zeniastampe</t>
@@ -2192,7 +2186,7 @@
         <v>117</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>29</v>
       </c>
       <c r="C53" t="s">
         <v>30</v>
@@ -2822,22 +2816,22 @@
         <v>201</v>
       </c>
       <c r="B95" t="s">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="C95" t="s">
         <v>30</v>
       </c>
       <c r="D95" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="E95"/>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B96" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C96" t="s">
         <v>30</v>
@@ -2852,7 +2846,7 @@
         <v>206</v>
       </c>
       <c r="B97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C97" t="s">
         <v>30</v>
@@ -2867,7 +2861,7 @@
         <v>208</v>
       </c>
       <c r="B98" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C98" t="s">
         <v>30</v>
@@ -2882,7 +2876,7 @@
         <v>210</v>
       </c>
       <c r="B99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C99" t="s">
         <v>30</v>
@@ -2897,7 +2891,7 @@
         <v>212</v>
       </c>
       <c r="B100" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C100" t="s">
         <v>30</v>
@@ -2912,7 +2906,7 @@
         <v>214</v>
       </c>
       <c r="B101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
         <v>30</v>
@@ -2927,7 +2921,7 @@
         <v>216</v>
       </c>
       <c r="B102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
         <v>30</v>
@@ -2942,7 +2936,7 @@
         <v>218</v>
       </c>
       <c r="B103" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
         <v>30</v>
@@ -2957,7 +2951,7 @@
         <v>220</v>
       </c>
       <c r="B104" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
         <v>30</v>
@@ -2972,7 +2966,7 @@
         <v>222</v>
       </c>
       <c r="B105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
         <v>30</v>
@@ -2987,7 +2981,7 @@
         <v>224</v>
       </c>
       <c r="B106" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
         <v>30</v>
@@ -3002,7 +2996,7 @@
         <v>226</v>
       </c>
       <c r="B107" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
         <v>30</v>
@@ -3017,7 +3011,7 @@
         <v>228</v>
       </c>
       <c r="B108" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C108" t="s">
         <v>30</v>
@@ -3032,22 +3026,22 @@
         <v>230</v>
       </c>
       <c r="B109" t="s">
-        <v>204</v>
+        <v>231</v>
       </c>
       <c r="C109" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="E109"/>
     </row>
     <row r="110">
       <c r="A110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B110" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C110" t="s">
         <v>7</v>
@@ -3062,7 +3056,7 @@
         <v>235</v>
       </c>
       <c r="B111" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C111" t="s">
         <v>7</v>
@@ -3077,7 +3071,7 @@
         <v>237</v>
       </c>
       <c r="B112" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C112" t="s">
         <v>7</v>
@@ -3092,7 +3086,7 @@
         <v>239</v>
       </c>
       <c r="B113" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C113" t="s">
         <v>7</v>
@@ -3107,7 +3101,7 @@
         <v>241</v>
       </c>
       <c r="B114" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C114" t="s">
         <v>7</v>
@@ -3122,7 +3116,7 @@
         <v>243</v>
       </c>
       <c r="B115" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C115" t="s">
         <v>7</v>
@@ -3137,7 +3131,7 @@
         <v>245</v>
       </c>
       <c r="B116" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C116" t="s">
         <v>7</v>
@@ -3152,7 +3146,7 @@
         <v>247</v>
       </c>
       <c r="B117" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C117" t="s">
         <v>7</v>
@@ -3167,7 +3161,7 @@
         <v>249</v>
       </c>
       <c r="B118" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C118" t="s">
         <v>7</v>
@@ -3182,7 +3176,7 @@
         <v>251</v>
       </c>
       <c r="B119" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C119" t="s">
         <v>7</v>
@@ -3197,7 +3191,7 @@
         <v>253</v>
       </c>
       <c r="B120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C120" t="s">
         <v>7</v>
@@ -3212,7 +3206,7 @@
         <v>255</v>
       </c>
       <c r="B121" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C121" t="s">
         <v>7</v>
@@ -3227,7 +3221,7 @@
         <v>257</v>
       </c>
       <c r="B122" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C122" t="s">
         <v>7</v>
@@ -3242,7 +3236,7 @@
         <v>259</v>
       </c>
       <c r="B123" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s">
         <v>7</v>
@@ -3257,7 +3251,7 @@
         <v>261</v>
       </c>
       <c r="B124" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s">
         <v>7</v>
@@ -3272,7 +3266,7 @@
         <v>263</v>
       </c>
       <c r="B125" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C125" t="s">
         <v>7</v>
@@ -3287,7 +3281,7 @@
         <v>265</v>
       </c>
       <c r="B126" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C126" t="s">
         <v>7</v>
@@ -3302,7 +3296,7 @@
         <v>267</v>
       </c>
       <c r="B127" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C127" t="s">
         <v>7</v>
@@ -3317,7 +3311,7 @@
         <v>269</v>
       </c>
       <c r="B128" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C128" t="s">
         <v>7</v>
@@ -3332,7 +3326,7 @@
         <v>271</v>
       </c>
       <c r="B129" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C129" t="s">
         <v>7</v>
@@ -3347,7 +3341,7 @@
         <v>273</v>
       </c>
       <c r="B130" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C130" t="s">
         <v>7</v>
@@ -3362,7 +3356,7 @@
         <v>275</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C131" t="s">
         <v>7</v>
@@ -3377,7 +3371,7 @@
         <v>277</v>
       </c>
       <c r="B132" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C132" t="s">
         <v>7</v>
@@ -3392,7 +3386,7 @@
         <v>279</v>
       </c>
       <c r="B133" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C133" t="s">
         <v>7</v>
@@ -3407,7 +3401,7 @@
         <v>281</v>
       </c>
       <c r="B134" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C134" t="s">
         <v>7</v>
@@ -3422,7 +3416,7 @@
         <v>283</v>
       </c>
       <c r="B135" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C135" t="s">
         <v>7</v>
@@ -3437,7 +3431,7 @@
         <v>285</v>
       </c>
       <c r="B136" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C136" t="s">
         <v>7</v>
@@ -3452,7 +3446,7 @@
         <v>287</v>
       </c>
       <c r="B137" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C137" t="s">
         <v>7</v>
@@ -3467,7 +3461,7 @@
         <v>289</v>
       </c>
       <c r="B138" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C138" t="s">
         <v>7</v>
@@ -3482,7 +3476,7 @@
         <v>291</v>
       </c>
       <c r="B139" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C139" t="s">
         <v>7</v>
@@ -3497,7 +3491,7 @@
         <v>293</v>
       </c>
       <c r="B140" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C140" t="s">
         <v>7</v>
@@ -3512,7 +3506,7 @@
         <v>295</v>
       </c>
       <c r="B141" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C141" t="s">
         <v>7</v>
@@ -3527,7 +3521,7 @@
         <v>297</v>
       </c>
       <c r="B142" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C142" t="s">
         <v>7</v>
@@ -3542,7 +3536,7 @@
         <v>299</v>
       </c>
       <c r="B143" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C143" t="s">
         <v>7</v>
@@ -3557,70 +3551,70 @@
         <v>301</v>
       </c>
       <c r="B144" t="s">
-        <v>233</v>
+        <v>302</v>
       </c>
       <c r="C144" t="s">
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="E144"/>
     </row>
     <row r="145">
       <c r="A145" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B145" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C145" t="s">
         <v>7</v>
       </c>
       <c r="D145" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E145"/>
     </row>
     <row r="146">
       <c r="A146" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B146" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C146" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D146" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="E146"/>
     </row>
     <row r="147">
       <c r="A147" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B147" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D147" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E147"/>
     </row>
     <row r="148">
       <c r="A148" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B148" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="C148" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D148" t="s">
         <v>314</v>
@@ -3628,17 +3622,15 @@
       <c r="E148"/>
     </row>
     <row r="149">
-      <c r="A149" t="s">
+      <c r="A149"/>
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="C149" t="s">
+        <v>30</v>
+      </c>
+      <c r="D149" t="s">
         <v>315</v>
-      </c>
-      <c r="B149" t="s">
-        <v>310</v>
-      </c>
-      <c r="C149" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" t="s">
-        <v>316</v>
       </c>
       <c r="E149"/>
     </row>
@@ -3651,12 +3643,14 @@
         <v>30</v>
       </c>
       <c r="D150" t="s">
+        <v>316</v>
+      </c>
+      <c r="E150"/>
+    </row>
+    <row r="151">
+      <c r="A151" t="s">
         <v>317</v>
       </c>
-      <c r="E150"/>
-    </row>
-    <row r="151">
-      <c r="A151"/>
       <c r="B151" t="s">
         <v>29</v>
       </c>
@@ -3669,17 +3663,15 @@
       <c r="E151"/>
     </row>
     <row r="152">
-      <c r="A152" t="s">
+      <c r="A152"/>
+      <c r="B152" t="s">
+        <v>29</v>
+      </c>
+      <c r="C152" t="s">
+        <v>30</v>
+      </c>
+      <c r="D152" t="s">
         <v>319</v>
-      </c>
-      <c r="B152" t="s">
-        <v>29</v>
-      </c>
-      <c r="C152" t="s">
-        <v>30</v>
-      </c>
-      <c r="D152" t="s">
-        <v>320</v>
       </c>
       <c r="E152"/>
     </row>
@@ -3692,7 +3684,7 @@
         <v>30</v>
       </c>
       <c r="D153" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E153"/>
     </row>
@@ -3705,40 +3697,42 @@
         <v>30</v>
       </c>
       <c r="D154" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E154"/>
     </row>
     <row r="155">
       <c r="A155"/>
       <c r="B155" t="s">
-        <v>29</v>
+        <v>231</v>
       </c>
       <c r="C155" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D155" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E155"/>
     </row>
     <row r="156">
       <c r="A156"/>
       <c r="B156" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C156" t="s">
         <v>7</v>
       </c>
       <c r="D156" t="s">
+        <v>323</v>
+      </c>
+      <c r="E156"/>
+    </row>
+    <row r="157">
+      <c r="A157" t="s">
         <v>324</v>
       </c>
-      <c r="E156"/>
-    </row>
-    <row r="157">
-      <c r="A157"/>
       <c r="B157" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C157" t="s">
         <v>7</v>
@@ -3749,53 +3743,53 @@
       <c r="E157"/>
     </row>
     <row r="158">
-      <c r="A158" t="s">
+      <c r="A158"/>
+      <c r="B158" t="s">
+        <v>231</v>
+      </c>
+      <c r="C158" t="s">
+        <v>7</v>
+      </c>
+      <c r="D158" t="s">
         <v>326</v>
-      </c>
-      <c r="B158" t="s">
-        <v>233</v>
-      </c>
-      <c r="C158" t="s">
-        <v>7</v>
-      </c>
-      <c r="D158" t="s">
-        <v>327</v>
       </c>
       <c r="E158"/>
     </row>
     <row r="159">
       <c r="A159"/>
       <c r="B159" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="C159" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D159" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E159"/>
     </row>
     <row r="160">
       <c r="A160"/>
       <c r="B160" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C160" t="s">
         <v>30</v>
       </c>
       <c r="D160" t="s">
+        <v>328</v>
+      </c>
+      <c r="E160"/>
+    </row>
+    <row r="161">
+      <c r="A161" t="s">
         <v>329</v>
       </c>
-      <c r="E160"/>
-    </row>
-    <row r="161">
-      <c r="A161"/>
       <c r="B161" t="s">
-        <v>204</v>
+        <v>6</v>
       </c>
       <c r="C161" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="D161" t="s">
         <v>330</v>
@@ -3803,9 +3797,7 @@
       <c r="E161"/>
     </row>
     <row r="162">
-      <c r="A162" t="s">
-        <v>331</v>
-      </c>
+      <c r="A162"/>
       <c r="B162" t="s">
         <v>6</v>
       </c>
@@ -3813,12 +3805,14 @@
         <v>7</v>
       </c>
       <c r="D162" t="s">
+        <v>331</v>
+      </c>
+      <c r="E162"/>
+    </row>
+    <row r="163">
+      <c r="A163" t="s">
         <v>332</v>
       </c>
-      <c r="E162"/>
-    </row>
-    <row r="163">
-      <c r="A163"/>
       <c r="B163" t="s">
         <v>6</v>
       </c>
@@ -3831,9 +3825,7 @@
       <c r="E163"/>
     </row>
     <row r="164">
-      <c r="A164" t="s">
-        <v>334</v>
-      </c>
+      <c r="A164"/>
       <c r="B164" t="s">
         <v>6</v>
       </c>
@@ -3841,25 +3833,27 @@
         <v>7</v>
       </c>
       <c r="D164" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E164"/>
     </row>
     <row r="165">
       <c r="A165"/>
       <c r="B165" t="s">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="C165" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D165" t="s">
+        <v>335</v>
+      </c>
+      <c r="E165"/>
+    </row>
+    <row r="166">
+      <c r="A166" t="s">
         <v>336</v>
       </c>
-      <c r="E165"/>
-    </row>
-    <row r="166">
-      <c r="A166"/>
       <c r="B166" t="s">
         <v>56</v>
       </c>
@@ -3887,17 +3881,15 @@
       <c r="E167"/>
     </row>
     <row r="168">
-      <c r="A168" t="s">
+      <c r="A168"/>
+      <c r="B168" t="s">
+        <v>26</v>
+      </c>
+      <c r="C168" t="s">
+        <v>7</v>
+      </c>
+      <c r="D168" t="s">
         <v>340</v>
-      </c>
-      <c r="B168" t="s">
-        <v>56</v>
-      </c>
-      <c r="C168" t="s">
-        <v>30</v>
-      </c>
-      <c r="D168" t="s">
-        <v>341</v>
       </c>
       <c r="E168"/>
     </row>
@@ -3910,55 +3902,55 @@
         <v>7</v>
       </c>
       <c r="D169" t="s">
+        <v>341</v>
+      </c>
+      <c r="E169"/>
+    </row>
+    <row r="170">
+      <c r="A170" t="s">
         <v>342</v>
       </c>
-      <c r="E169"/>
-    </row>
-    <row r="170">
-      <c r="A170"/>
       <c r="B170" t="s">
-        <v>26</v>
+        <v>343</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D170" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="E170"/>
     </row>
     <row r="171">
       <c r="A171" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B171" t="s">
-        <v>345</v>
-      </c>
-      <c r="C171" t="s">
-        <v>30</v>
-      </c>
+        <v>305</v>
+      </c>
+      <c r="C171"/>
       <c r="D171" t="s">
         <v>346</v>
       </c>
       <c r="E171"/>
     </row>
     <row r="172">
-      <c r="A172" t="s">
-        <v>347</v>
-      </c>
+      <c r="A172"/>
       <c r="B172" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C172"/>
       <c r="D172" t="s">
+        <v>347</v>
+      </c>
+      <c r="E172"/>
+    </row>
+    <row r="173">
+      <c r="A173" t="s">
         <v>348</v>
       </c>
-      <c r="E172"/>
-    </row>
-    <row r="173">
-      <c r="A173"/>
       <c r="B173" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C173"/>
       <c r="D173" t="s">
@@ -3971,28 +3963,15 @@
         <v>350</v>
       </c>
       <c r="B174" t="s">
-        <v>307</v>
-      </c>
-      <c r="C174"/>
+        <v>343</v>
+      </c>
+      <c r="C174" t="s">
+        <v>30</v>
+      </c>
       <c r="D174" t="s">
         <v>351</v>
       </c>
       <c r="E174"/>
-    </row>
-    <row r="175">
-      <c r="A175" t="s">
-        <v>352</v>
-      </c>
-      <c r="B175" t="s">
-        <v>345</v>
-      </c>
-      <c r="C175" t="s">
-        <v>30</v>
-      </c>
-      <c r="D175" t="s">
-        <v>353</v>
-      </c>
-      <c r="E175"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
